--- a/artfynd/A 21287-2021.xlsx
+++ b/artfynd/A 21287-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>63191078</v>
+        <v>69062005</v>
       </c>
       <c r="B2" t="n">
-        <v>57484</v>
+        <v>89557</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,58 +696,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>205998</v>
+        <v>1588</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Nordfladdermus</t>
+          <t>Violmussling</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Eptesicus nilssonii</t>
+          <t>Trichaptum laricinum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(A.Keyserling &amp; Blasius, 1839)</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>registreringar</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>autobox med höghastighetsinspelning</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Ryvarden</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Ön, Vb</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>759836.9302479513</v>
+        <v>759914.2062387039</v>
       </c>
       <c r="R2" t="n">
-        <v>7086399.103862511</v>
+        <v>7086527.972586548</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -774,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2016-06-28</t>
+          <t>2017-08-29</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -784,17 +760,12 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2016-07-01</t>
+          <t>2017-08-29</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>lokal-ID: 5</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -809,22 +780,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Alexander Eriksson</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Alexander Eriksson, Björn Palmqvist</t>
+          <t>Torbjörn Josefsson, Karin Björnehall</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>69062005</v>
+        <v>63191078</v>
       </c>
       <c r="B3" t="n">
-        <v>89557</v>
+        <v>57484</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -837,34 +808,58 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1588</v>
+        <v>205998</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Violmussling</t>
+          <t>Nordfladdermus</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Trichaptum laricinum</t>
+          <t>Eptesicus nilssonii</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Ryvarden</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>(A.Keyserling &amp; Blasius, 1839)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>registreringar</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>autobox med höghastighetsinspelning</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Ön, Vb</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>759914.2062387039</v>
+        <v>759836.9302479513</v>
       </c>
       <c r="R3" t="n">
-        <v>7086527.972586548</v>
+        <v>7086399.103862511</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -891,7 +886,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2017-08-29</t>
+          <t>2016-06-28</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -901,12 +896,17 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2017-08-29</t>
+          <t>2016-07-01</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>lokal-ID: 5</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -921,12 +921,12 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Alexander Eriksson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson, Karin Björnehall</t>
+          <t>Alexander Eriksson, Björn Palmqvist</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>

--- a/artfynd/A 21287-2021.xlsx
+++ b/artfynd/A 21287-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>69062005</v>
+        <v>63191078</v>
       </c>
       <c r="B2" t="n">
-        <v>89557</v>
+        <v>57484</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,34 +696,58 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1588</v>
+        <v>205998</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Violmussling</t>
+          <t>Nordfladdermus</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Trichaptum laricinum</t>
+          <t>Eptesicus nilssonii</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst.) Ryvarden</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>(A.Keyserling &amp; Blasius, 1839)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>registreringar</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>autobox med höghastighetsinspelning</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Ön, Vb</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>759914.2062387039</v>
+        <v>759836.9302479513</v>
       </c>
       <c r="R2" t="n">
-        <v>7086527.972586548</v>
+        <v>7086399.103862511</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -750,7 +774,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2017-08-29</t>
+          <t>2016-06-28</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,12 +784,17 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2017-08-29</t>
+          <t>2016-07-01</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>lokal-ID: 5</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -780,22 +809,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Alexander Eriksson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson, Karin Björnehall</t>
+          <t>Alexander Eriksson, Björn Palmqvist</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>63191078</v>
+        <v>69062005</v>
       </c>
       <c r="B3" t="n">
-        <v>57484</v>
+        <v>89557</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,58 +837,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>205998</v>
+        <v>1588</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nordfladdermus</t>
+          <t>Violmussling</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Eptesicus nilssonii</t>
+          <t>Trichaptum laricinum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(A.Keyserling &amp; Blasius, 1839)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>registreringar</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>autobox med höghastighetsinspelning</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Ryvarden</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Ön, Vb</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>759836.9302479513</v>
+        <v>759914.2062387039</v>
       </c>
       <c r="R3" t="n">
-        <v>7086399.103862511</v>
+        <v>7086527.972586548</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -886,7 +891,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2016-06-28</t>
+          <t>2017-08-29</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -896,17 +901,12 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2016-07-01</t>
+          <t>2017-08-29</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>lokal-ID: 5</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -921,12 +921,12 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Alexander Eriksson</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Alexander Eriksson, Björn Palmqvist</t>
+          <t>Torbjörn Josefsson, Karin Björnehall</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
